--- a/static/media/records/17PCD18.xlsx
+++ b/static/media/records/17PCD18.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>03-07-2021</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -507,6 +512,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -549,6 +559,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -591,6 +606,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -631,6 +651,35 @@
       <c r="H5" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1JT17CS058</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1JT17CS060</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -645,7 +694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,6 +743,11 @@
           <t>03-07-2021</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -736,6 +790,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -778,6 +837,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -820,6 +884,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -860,6 +929,35 @@
       <c r="H5" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1JT17CS058</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1JT17CS060</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -874,7 +972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,6 +1021,11 @@
           <t>03-07-2021</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -965,6 +1068,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1007,6 +1115,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1049,6 +1162,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1089,6 +1207,35 @@
       <c r="H5" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1JT17CS058</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1JT17CS060</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>
